--- a/doc/beast.xlsx
+++ b/doc/beast.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="16605" windowHeight="13170"/>
+    <workbookView windowWidth="23430" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="BeastTable(yes)" sheetId="1" r:id="rId1"/>
@@ -29,11 +29,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"4CC","name":"ID"}</t>
+          <t>{"type":"4CC","name":"ID"}</t>
         </r>
       </text>
     </comment>
@@ -42,11 +41,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"uint32","name":"b_blood"}</t>
+          <t>{"type":"uint32","name":"b_blood"}</t>
         </r>
       </text>
     </comment>
@@ -55,7 +53,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -69,7 +66,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -83,11 +79,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
-          <t xml:space="preserve">{"type":"string","name":"dsc","size":128}</t>
+          <t>{"type":"string","name":"dsc","size":128}</t>
         </r>
       </text>
     </comment>
@@ -96,7 +91,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="宋体"/>
             <charset val="134"/>
           </rPr>
@@ -105,12 +99,24 @@
         </r>
       </text>
     </comment>
+    <comment ref="G2" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <rFont val="宋体"/>
+            <charset val="134"/>
+          </rPr>
+          <t>{"type":"string","name":"m_shipei","size":64}</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24">
   <si>
     <t>xxx</t>
   </si>
@@ -136,6 +142,9 @@
     <t>path</t>
   </si>
   <si>
+    <t>peishi</t>
+  </si>
+  <si>
     <t>M001</t>
   </si>
   <si>
@@ -146,6 +155,9 @@
   </si>
   <si>
     <t>res/spine/monster1/monster1</t>
+  </si>
+  <si>
+    <t>res/spine/peishi/peishi</t>
   </si>
   <si>
     <t>M002</t>
@@ -208,6 +220,113 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -222,104 +341,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -335,17 +356,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -360,187 +372,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -554,17 +566,26 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -599,20 +620,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -632,22 +650,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -659,10 +671,10 @@
     <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,133 +683,133 @@
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1194,17 +1206,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="4" ySplit="2" topLeftCell="E3" activePane="bottomRight" state="frozen"/>
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomRight" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="3" width="9" style="1"/>
     <col min="4" max="4" width="12.625" style="1" customWidth="1"/>
@@ -1228,7 +1240,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1247,10 +1259,13 @@
       <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="G2" s="1" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" s="1">
         <v>10</v>
@@ -1259,18 +1274,21 @@
         <v>1</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1">
         <v>8</v>
@@ -1279,18 +1297,21 @@
         <v>2</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B5" s="1">
         <v>10</v>
@@ -1299,18 +1320,21 @@
         <v>10</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G5" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B6" s="1">
         <v>8</v>
@@ -1319,18 +1343,21 @@
         <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B7" s="1">
         <v>100</v>
@@ -1339,18 +1366,21 @@
         <v>10</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G7" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B8" s="1">
         <v>50</v>
@@ -1359,18 +1389,21 @@
         <v>20</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G8" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B9" s="1">
         <v>100</v>
@@ -1379,18 +1412,21 @@
         <v>10</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G9" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B10" s="1">
         <v>50</v>
@@ -1399,18 +1435,21 @@
         <v>20</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G10" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1">
         <v>100</v>
@@ -1419,18 +1458,21 @@
         <v>10</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="G11" s="1" t="s">
+        <v>1</v>
+      </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B12" s="1">
         <v>50</v>
@@ -1439,12 +1481,15 @@
         <v>20</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>1</v>
       </c>
     </row>
